--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123B661-7C84-4C71-BBEF-4133EDB185A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFE5D7-5F85-45A0-BF9B-C4EE43FF1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -57,6 +48,18 @@
   </si>
   <si>
     <t>Pasajeros en el AICM</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>(Miles de Pasajeros)</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -239,28 +242,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,15 +252,39 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -299,8 +304,19 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -310,13 +326,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -372,17 +381,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:C82" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="B5:C82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D85" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
-        <dateGroupItem year="2023" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="1"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{13975812-023F-41F7-BE33-7D6339CA5442}" name="Mes" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="CDMX." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -612,671 +622,942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:C85"/>
+  <dimension ref="B2:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3998.7649999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="16">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4118.4250000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3717.317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3847.2890000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3692.0230000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3780.97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D12" s="7">
+        <v>3488.5149999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="17">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3794.94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="19">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="20">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4258.8149999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="16">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4104.6229999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="14">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4037.5250000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="16">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3827.962</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="14">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4306.9740000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="16">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4327.7169999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3919.3029999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3922.9349999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3847.2890000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3692.0230000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3780.97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3488.5149999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3794.94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="15">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="16">
-        <v>4258.8149999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4109.3209999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4041.5140000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3827.962</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4306.9740000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4327.7169999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3919.3029999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3922.9349999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="D22" s="7">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="7">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="6">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="17">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="16">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="19">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="20">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="4">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="16">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="7">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="14">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="16">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="7">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="4">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="16">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="14">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="4">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="16">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="7">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="14">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="4">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="7">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="6">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="15">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="16">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="19">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="20">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="4">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="16">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="7">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="14">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="4">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="16">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="7">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="14">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="4">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="16">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="7">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="14">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="4">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="16">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="7">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="14">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="4">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="16">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="7">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="6">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="15">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="16">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="19">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="20">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="4">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="16">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="7">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="14">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="4">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="16">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="7">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="14">
+        <v>8</v>
+      </c>
+      <c r="D54" s="7">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="4">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="16">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="7">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="14">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="4">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="16">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="7">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="14">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
         <v>295.649</v>
       </c>
     </row>
-    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="4">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="16">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="7">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="14">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="6">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="18">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="15">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="16">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="20">
+        <v>12</v>
+      </c>
+      <c r="D62" s="8">
         <v>4502</v>
       </c>
     </row>
-    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="4">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="16">
+        <v>11</v>
+      </c>
+      <c r="D63" s="4">
         <v>4251</v>
       </c>
     </row>
-    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="7">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="14">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7">
         <v>4249</v>
       </c>
     </row>
-    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="4">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="16">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
         <v>3914</v>
       </c>
     </row>
-    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="7">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="14">
+        <v>8</v>
+      </c>
+      <c r="D66" s="7">
         <v>4432</v>
       </c>
     </row>
-    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="4">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="16">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4">
         <v>4629</v>
       </c>
     </row>
-    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="7">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="14">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
         <v>4261</v>
       </c>
     </row>
-    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="4">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="16">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4">
         <v>4347</v>
       </c>
     </row>
-    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="7">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="14">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7">
         <v>4127</v>
       </c>
     </row>
-    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="4">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="16">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4">
         <v>4123</v>
       </c>
     </row>
-    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="7">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
         <v>3516</v>
       </c>
     </row>
-    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="6">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="18">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
         <v>3954</v>
       </c>
     </row>
-    <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="7">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="14">
+        <v>12</v>
+      </c>
+      <c r="D74" s="7">
         <v>4255</v>
       </c>
     </row>
-    <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="4">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="16">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4">
         <v>4085</v>
       </c>
     </row>
-    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="7">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="14">
+        <v>10</v>
+      </c>
+      <c r="D76" s="7">
         <v>4060</v>
       </c>
     </row>
-    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="4">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="16">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4">
         <v>3754</v>
       </c>
     </row>
-    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="7">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="14">
+        <v>8</v>
+      </c>
+      <c r="D78" s="7">
         <v>4226</v>
       </c>
     </row>
-    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="4">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="16">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4">
         <v>4449</v>
       </c>
     </row>
-    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="7">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="14">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7">
         <v>3918</v>
       </c>
     </row>
-    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="4">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="16">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4">
         <v>3962</v>
       </c>
     </row>
-    <row r="79" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="7">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="14">
+        <v>4</v>
+      </c>
+      <c r="D82" s="7">
         <v>3880</v>
       </c>
     </row>
-    <row r="80" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="4">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="16">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4">
         <v>3917</v>
       </c>
     </row>
-    <row r="81" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="7">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="14">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7">
         <v>3362</v>
       </c>
     </row>
-    <row r="82" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="4">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="16">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
         <v>3830</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C84" s="3" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C85" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFE5D7-5F85-45A0-BF9B-C4EE43FF1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D83FFB-9A4F-47BA-8CFC-01FF6FCC39EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -60,6 +60,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -313,6 +349,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -320,12 +362,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -381,7 +417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D85" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D85" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="B5:D85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -670,7 +706,7 @@
       <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7">
@@ -681,8 +717,8 @@
       <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="16">
-        <v>7</v>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>4118.4250000000002</v>
@@ -692,8 +728,8 @@
       <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14">
-        <v>6</v>
+      <c r="C8" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="7">
         <v>3717.317</v>
@@ -703,8 +739,8 @@
       <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="16">
-        <v>5</v>
+      <c r="C9" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="4">
         <v>3847.2890000000002</v>
@@ -714,8 +750,8 @@
       <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14">
-        <v>4</v>
+      <c r="C10" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="7">
         <v>3692.0230000000001</v>
@@ -725,8 +761,8 @@
       <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="16">
-        <v>3</v>
+      <c r="C11" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>3780.97</v>
@@ -736,8 +772,8 @@
       <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="14">
-        <v>2</v>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="7">
         <v>3488.5149999999999</v>
@@ -747,8 +783,8 @@
       <c r="B13" s="17">
         <v>2024</v>
       </c>
-      <c r="C13" s="18">
-        <v>1</v>
+      <c r="C13" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="6">
         <v>3794.94</v>
@@ -758,8 +794,8 @@
       <c r="B14" s="19">
         <v>2023</v>
       </c>
-      <c r="C14" s="20">
-        <v>12</v>
+      <c r="C14" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="8">
         <v>4258.8149999999996</v>
@@ -769,8 +805,8 @@
       <c r="B15" s="15">
         <v>2023</v>
       </c>
-      <c r="C15" s="16">
-        <v>11</v>
+      <c r="C15" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="4">
         <v>4104.6229999999996</v>
@@ -780,8 +816,8 @@
       <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="14">
-        <v>10</v>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="7">
         <v>4037.5250000000001</v>
@@ -791,8 +827,8 @@
       <c r="B17" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="16">
-        <v>9</v>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>3827.962</v>
@@ -802,7 +838,7 @@
       <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="7">
@@ -813,8 +849,8 @@
       <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="16">
-        <v>7</v>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>4327.7169999999996</v>
@@ -824,8 +860,8 @@
       <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="14">
-        <v>6</v>
+      <c r="C20" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="7">
         <v>3919.3029999999999</v>
@@ -835,8 +871,8 @@
       <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="16">
-        <v>5</v>
+      <c r="C21" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="4">
         <v>3922.9349999999999</v>
@@ -846,8 +882,8 @@
       <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14">
-        <v>4</v>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="7">
         <v>3994.7049999999999</v>
@@ -857,8 +893,8 @@
       <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="16">
-        <v>3</v>
+      <c r="C23" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="4">
         <v>4123.3239999999996</v>
@@ -868,8 +904,8 @@
       <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="14">
-        <v>2</v>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D24" s="7">
         <v>3554.797</v>
@@ -879,8 +915,8 @@
       <c r="B25" s="17">
         <v>2023</v>
       </c>
-      <c r="C25" s="18">
-        <v>1</v>
+      <c r="C25" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="6">
         <v>3990.0680000000002</v>
@@ -890,8 +926,8 @@
       <c r="B26" s="19">
         <v>2022</v>
       </c>
-      <c r="C26" s="20">
-        <v>12</v>
+      <c r="C26" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="8">
         <v>4238.7659999999996</v>
@@ -901,8 +937,8 @@
       <c r="B27" s="15">
         <v>2022</v>
       </c>
-      <c r="C27" s="16">
-        <v>11</v>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="4">
         <v>4112.6660000000002</v>
@@ -912,8 +948,8 @@
       <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="14">
-        <v>10</v>
+      <c r="C28" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D28" s="7">
         <v>4176.6270000000004</v>
@@ -923,8 +959,8 @@
       <c r="B29" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="16">
-        <v>9</v>
+      <c r="C29" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>3863.6619999999998</v>
@@ -934,7 +970,7 @@
       <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="7">
@@ -945,8 +981,8 @@
       <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="16">
-        <v>7</v>
+      <c r="C31" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D31" s="4">
         <v>4341.2539999999999</v>
@@ -956,8 +992,8 @@
       <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="14">
-        <v>6</v>
+      <c r="C32" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D32" s="7">
         <v>3494.9769999999999</v>
@@ -967,8 +1003,8 @@
       <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="16">
-        <v>5</v>
+      <c r="C33" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="4">
         <v>3583.3429999999998</v>
@@ -978,8 +1014,8 @@
       <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14">
-        <v>4</v>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="7">
         <v>4001.893</v>
@@ -989,8 +1025,8 @@
       <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="16">
-        <v>3</v>
+      <c r="C35" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D35" s="4">
         <v>3824.444</v>
@@ -1000,8 +1036,8 @@
       <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="14">
-        <v>2</v>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="7">
         <v>3004.3879999999999</v>
@@ -1011,8 +1047,8 @@
       <c r="B37" s="17">
         <v>2022</v>
       </c>
-      <c r="C37" s="18">
-        <v>1</v>
+      <c r="C37" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="6">
         <v>3245.8560000000002</v>
@@ -1022,8 +1058,8 @@
       <c r="B38" s="19">
         <v>2021</v>
       </c>
-      <c r="C38" s="20">
-        <v>12</v>
+      <c r="C38" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D38" s="8">
         <v>4055.7109999999998</v>
@@ -1033,8 +1069,8 @@
       <c r="B39" s="15">
         <v>2021</v>
       </c>
-      <c r="C39" s="16">
-        <v>11</v>
+      <c r="C39" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D39" s="4">
         <v>3707.04</v>
@@ -1044,8 +1080,8 @@
       <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="14">
-        <v>10</v>
+      <c r="C40" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D40" s="7">
         <v>3506.2440000000001</v>
@@ -1055,8 +1091,8 @@
       <c r="B41" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="16">
-        <v>9</v>
+      <c r="C41" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D41" s="4">
         <v>2990.578</v>
@@ -1066,7 +1102,7 @@
       <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="7">
@@ -1077,8 +1113,8 @@
       <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="16">
-        <v>7</v>
+      <c r="C43" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D43" s="4">
         <v>3590.8180000000002</v>
@@ -1088,8 +1124,8 @@
       <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="14">
-        <v>6</v>
+      <c r="C44" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D44" s="7">
         <v>3133.0639999999999</v>
@@ -1099,8 +1135,8 @@
       <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="16">
-        <v>5</v>
+      <c r="C45" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D45" s="4">
         <v>3030.8330000000001</v>
@@ -1110,8 +1146,8 @@
       <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14">
-        <v>4</v>
+      <c r="C46" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D46" s="7">
         <v>2622.9360000000001</v>
@@ -1121,8 +1157,8 @@
       <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="16">
-        <v>3</v>
+      <c r="C47" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D47" s="4">
         <v>2351.6320000000001</v>
@@ -1132,8 +1168,8 @@
       <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="14">
-        <v>2</v>
+      <c r="C48" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D48" s="7">
         <v>1613.7</v>
@@ -1143,8 +1179,8 @@
       <c r="B49" s="17">
         <v>2021</v>
       </c>
-      <c r="C49" s="18">
-        <v>1</v>
+      <c r="C49" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D49" s="6">
         <v>2073.848</v>
@@ -1154,8 +1190,8 @@
       <c r="B50" s="19">
         <v>2020</v>
       </c>
-      <c r="C50" s="20">
-        <v>12</v>
+      <c r="C50" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="8">
         <v>2358.857</v>
@@ -1165,8 +1201,8 @@
       <c r="B51" s="15">
         <v>2020</v>
       </c>
-      <c r="C51" s="16">
-        <v>11</v>
+      <c r="C51" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D51" s="4">
         <v>2044.8030000000001</v>
@@ -1176,8 +1212,8 @@
       <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="14">
-        <v>10</v>
+      <c r="C52" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D52" s="7">
         <v>1852.559</v>
@@ -1187,8 +1223,8 @@
       <c r="B53" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="16">
-        <v>9</v>
+      <c r="C53" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <v>1508.057</v>
@@ -1198,7 +1234,7 @@
       <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="7">
@@ -1209,8 +1245,8 @@
       <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="16">
-        <v>7</v>
+      <c r="C55" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="4">
         <v>1032.491</v>
@@ -1220,8 +1256,8 @@
       <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="14">
-        <v>6</v>
+      <c r="C56" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D56" s="7">
         <v>558.99199999999996</v>
@@ -1231,8 +1267,8 @@
       <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="16">
-        <v>5</v>
+      <c r="C57" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D57" s="4">
         <v>275.97500000000002</v>
@@ -1242,8 +1278,8 @@
       <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14">
-        <v>4</v>
+      <c r="C58" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D58" s="7">
         <v>295.649</v>
@@ -1253,8 +1289,8 @@
       <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="16">
-        <v>3</v>
+      <c r="C59" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D59" s="4">
         <v>2667.7860000000001</v>
@@ -1264,8 +1300,8 @@
       <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="14">
-        <v>2</v>
+      <c r="C60" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D60" s="7">
         <v>3822.44</v>
@@ -1275,8 +1311,8 @@
       <c r="B61" s="17">
         <v>2020</v>
       </c>
-      <c r="C61" s="18">
-        <v>1</v>
+      <c r="C61" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D61" s="6">
         <v>4210.1459999999997</v>
@@ -1286,8 +1322,8 @@
       <c r="B62" s="19">
         <v>2019</v>
       </c>
-      <c r="C62" s="20">
-        <v>12</v>
+      <c r="C62" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D62" s="8">
         <v>4502</v>
@@ -1297,8 +1333,8 @@
       <c r="B63" s="15">
         <v>2019</v>
       </c>
-      <c r="C63" s="16">
-        <v>11</v>
+      <c r="C63" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D63" s="4">
         <v>4251</v>
@@ -1308,8 +1344,8 @@
       <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="14">
-        <v>10</v>
+      <c r="C64" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D64" s="7">
         <v>4249</v>
@@ -1319,8 +1355,8 @@
       <c r="B65" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="16">
-        <v>9</v>
+      <c r="C65" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D65" s="4">
         <v>3914</v>
@@ -1330,7 +1366,7 @@
       <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="7">
@@ -1341,8 +1377,8 @@
       <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="16">
-        <v>7</v>
+      <c r="C67" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D67" s="4">
         <v>4629</v>
@@ -1352,8 +1388,8 @@
       <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="14">
-        <v>6</v>
+      <c r="C68" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D68" s="7">
         <v>4261</v>
@@ -1363,8 +1399,8 @@
       <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="16">
-        <v>5</v>
+      <c r="C69" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D69" s="4">
         <v>4347</v>
@@ -1374,8 +1410,8 @@
       <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14">
-        <v>4</v>
+      <c r="C70" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D70" s="7">
         <v>4127</v>
@@ -1385,8 +1421,8 @@
       <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="16">
-        <v>3</v>
+      <c r="C71" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D71" s="4">
         <v>4123</v>
@@ -1396,8 +1432,8 @@
       <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="14">
-        <v>2</v>
+      <c r="C72" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D72" s="7">
         <v>3516</v>
@@ -1407,8 +1443,8 @@
       <c r="B73" s="17">
         <v>2019</v>
       </c>
-      <c r="C73" s="18">
-        <v>1</v>
+      <c r="C73" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D73" s="6">
         <v>3954</v>
@@ -1418,8 +1454,8 @@
       <c r="B74" s="14">
         <v>2018</v>
       </c>
-      <c r="C74" s="14">
-        <v>12</v>
+      <c r="C74" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D74" s="7">
         <v>4255</v>
@@ -1429,8 +1465,8 @@
       <c r="B75" s="16">
         <v>2018</v>
       </c>
-      <c r="C75" s="16">
-        <v>11</v>
+      <c r="C75" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D75" s="4">
         <v>4085</v>
@@ -1440,8 +1476,8 @@
       <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14">
-        <v>10</v>
+      <c r="C76" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D76" s="7">
         <v>4060</v>
@@ -1451,8 +1487,8 @@
       <c r="B77" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="16">
-        <v>9</v>
+      <c r="C77" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D77" s="4">
         <v>3754</v>
@@ -1462,7 +1498,7 @@
       <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="7">
@@ -1473,8 +1509,8 @@
       <c r="B79" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="16">
-        <v>7</v>
+      <c r="C79" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D79" s="4">
         <v>4449</v>
@@ -1484,8 +1520,8 @@
       <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14">
-        <v>6</v>
+      <c r="C80" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D80" s="7">
         <v>3918</v>
@@ -1495,8 +1531,8 @@
       <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="16">
-        <v>5</v>
+      <c r="C81" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D81" s="4">
         <v>3962</v>
@@ -1506,8 +1542,8 @@
       <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14">
-        <v>4</v>
+      <c r="C82" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D82" s="7">
         <v>3880</v>
@@ -1517,8 +1553,8 @@
       <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="16">
-        <v>3</v>
+      <c r="C83" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D83" s="4">
         <v>3917</v>
@@ -1528,8 +1564,8 @@
       <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14">
-        <v>2</v>
+      <c r="C84" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D84" s="7">
         <v>3362</v>
@@ -1539,8 +1575,8 @@
       <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="16">
-        <v>1</v>
+      <c r="C85" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="D85" s="4">
         <v>3830</v>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D83FFB-9A4F-47BA-8CFC-01FF6FCC39EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1E377-B53C-4708-B2FE-E0BC5CC02040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -59,9 +59,6 @@
     <t>(Miles de Pasajeros)</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -349,12 +349,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -362,6 +356,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -417,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D85" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="B5:D85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -658,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -703,897 +703,908 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3595.306</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3998.7649999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>3998.7649999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="15">
+      <c r="D8" s="4">
+        <v>4118.4610000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
-        <v>4118.4250000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+      <c r="D9" s="7">
+        <v>3717.317</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
-        <v>3717.317</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="15">
+      <c r="D10" s="4">
+        <v>3847.2890000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
-        <v>3847.2890000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
+      <c r="D11" s="7">
+        <v>3692.0230000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>3692.0230000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="15">
+      <c r="D12" s="4">
+        <v>3780.97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
-        <v>3780.97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+      <c r="D13" s="7">
+        <v>3488.5149999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="17">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
-        <v>3488.5149999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="D14" s="6">
+        <v>3794.94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="19">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6">
-        <v>3794.94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="19">
+      <c r="D15" s="8">
+        <v>4258.8149999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
-        <v>4258.8149999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="15">
+      <c r="D16" s="4">
+        <v>4104.6229999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
         <v>2023</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4">
-        <v>4104.6229999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="13">
+      <c r="D17" s="7">
+        <v>4037.5250000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>4037.5250000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="15">
+      <c r="D18" s="4">
+        <v>3827.962</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3827.962</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="13">
+      <c r="C19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4306.9740000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
-        <v>4306.9740000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="15">
+      <c r="D20" s="4">
+        <v>4327.7169999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
-        <v>4327.7169999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="13">
+      <c r="D21" s="7">
+        <v>3919.3029999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7">
-        <v>3919.3029999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="15">
+      <c r="D22" s="4">
+        <v>3922.9349999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4">
-        <v>3922.9349999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="13">
+      <c r="D23" s="7">
+        <v>3994.7049999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
-        <v>3994.7049999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
+      <c r="D24" s="4">
+        <v>4123.3239999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="4">
-        <v>4123.3239999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="13">
+      <c r="D25" s="7">
+        <v>3554.797</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="17">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
-        <v>3554.797</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="D26" s="6">
+        <v>3990.0680000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="19">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6">
-        <v>3990.0680000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="19">
+      <c r="D27" s="8">
+        <v>4238.7659999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15">
         <v>2022</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8">
-        <v>4238.7659999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15">
+      <c r="D28" s="4">
+        <v>4112.6660000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="4">
-        <v>4112.6660000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13">
+      <c r="D29" s="7">
+        <v>4176.6270000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="7">
-        <v>4176.6270000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15">
+      <c r="D30" s="4">
+        <v>3863.6619999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3863.6619999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13">
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4312.6530000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="7">
-        <v>4312.6530000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="15">
+      <c r="D32" s="4">
+        <v>4341.2539999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4">
-        <v>4341.2539999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13">
+      <c r="D33" s="7">
+        <v>3494.9769999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7">
-        <v>3494.9769999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="15">
+      <c r="D34" s="4">
+        <v>3583.3429999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="4">
-        <v>3583.3429999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13">
+      <c r="D35" s="7">
+        <v>4001.893</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="7">
-        <v>4001.893</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="15">
+      <c r="D36" s="4">
+        <v>3824.444</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="4">
-        <v>3824.444</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13">
+      <c r="D37" s="7">
+        <v>3004.3879999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="17">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="7">
-        <v>3004.3879999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="D38" s="6">
+        <v>3245.8560000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="19">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="6">
-        <v>3245.8560000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="19">
+      <c r="D39" s="8">
+        <v>4055.7109999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="15">
         <v>2021</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="8">
-        <v>4055.7109999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="15">
+      <c r="D40" s="4">
+        <v>3707.04</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="13">
         <v>2021</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="4">
-        <v>3707.04</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13">
+      <c r="D41" s="7">
+        <v>3506.2440000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="7">
-        <v>3506.2440000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="15">
+      <c r="D42" s="4">
+        <v>2990.578</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2990.578</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="13">
+      <c r="C43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3351.9850000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C44" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="7">
-        <v>3351.9850000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15">
+      <c r="D44" s="4">
+        <v>3590.8180000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4">
-        <v>3590.8180000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="13">
+      <c r="D45" s="7">
+        <v>3133.0639999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C46" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="7">
-        <v>3133.0639999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="15">
+      <c r="D46" s="4">
+        <v>3030.8330000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="4">
-        <v>3030.8330000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="13">
+      <c r="D47" s="7">
+        <v>2622.9360000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="7">
-        <v>2622.9360000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="15">
+      <c r="D48" s="4">
+        <v>2351.6320000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="4">
-        <v>2351.6320000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13">
+      <c r="D49" s="7">
+        <v>1613.7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="17">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="7">
-        <v>1613.7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="D50" s="6">
+        <v>2073.848</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="19">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="6">
-        <v>2073.848</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="19">
+      <c r="D51" s="8">
+        <v>2358.857</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="15">
         <v>2020</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="8">
-        <v>2358.857</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="15">
+      <c r="D52" s="4">
+        <v>2044.8030000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13">
         <v>2020</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="4">
-        <v>2044.8030000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="13">
+      <c r="D53" s="7">
+        <v>1852.559</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="7">
-        <v>1852.559</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="15">
+      <c r="D54" s="4">
+        <v>1508.057</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1508.057</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="13">
+      <c r="C55" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1349.5129999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="7">
-        <v>1349.5129999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="15">
+      <c r="D56" s="4">
+        <v>1032.491</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4">
-        <v>1032.491</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="13">
+      <c r="D57" s="7">
+        <v>558.99199999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="7">
-        <v>558.99199999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="15">
+      <c r="D58" s="4">
+        <v>275.97500000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="4">
-        <v>275.97500000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="13">
+      <c r="D59" s="7">
+        <v>295.649</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="7">
-        <v>295.649</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="15">
+      <c r="D60" s="4">
+        <v>2667.7860000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="4">
-        <v>2667.7860000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="13">
+      <c r="D61" s="7">
+        <v>3822.44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="17">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C62" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="7">
-        <v>3822.44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C61" s="18" t="s">
+      <c r="D62" s="6">
+        <v>4210.1459999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="6">
-        <v>4210.1459999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="19">
+      <c r="D63" s="8">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="15">
         <v>2019</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="8">
-        <v>4502</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="15">
+      <c r="D64" s="4">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="13">
         <v>2019</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="4">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="13">
+      <c r="D65" s="7">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="7">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="15">
+      <c r="D66" s="4">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="4">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="13">
+      <c r="C67" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="7">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="7">
-        <v>4432</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="15">
+      <c r="D68" s="4">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C69" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4">
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="13">
+      <c r="D69" s="7">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C70" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="7">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="15">
+      <c r="D70" s="4">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="4">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="13">
+      <c r="D71" s="7">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C72" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="7">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="15">
+      <c r="D72" s="4">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C73" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="4">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="13">
+      <c r="D73" s="7">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="17">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C74" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="7">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="18" t="s">
+      <c r="D74" s="6">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="6">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
+      <c r="D75" s="7">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="16">
         <v>2018</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C76" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="7">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="16">
+      <c r="D76" s="4">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="4">
-        <v>4085</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+      <c r="D77" s="7">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="16">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="7">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="16">
+      <c r="D78" s="4">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="4">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+      <c r="C79" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="7">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="7">
-        <v>4226</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="16">
+      <c r="D80" s="4">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C81" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="4">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+      <c r="D81" s="7">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C82" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="7">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="16">
+      <c r="D82" s="4">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="4">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+      <c r="D83" s="7">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="7">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="16">
+      <c r="D84" s="4">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="4">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+      <c r="D85" s="7">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C86" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="7">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="4">
+      <c r="D86" s="4">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="3"/>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1E377-B53C-4708-B2FE-E0BC5CC02040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755B9496-C75E-4FFD-A12B-DEA831F5B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -44,9 +44,6 @@
     <t>CDMX.</t>
   </si>
   <si>
-    <t>Aeropuertos</t>
-  </si>
-  <si>
     <t>Pasajeros en el AICM</t>
   </si>
   <si>
@@ -95,7 +92,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Aeropuerto</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -109,40 +109,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +334,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -380,7 +380,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -417,8 +417,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D86" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D87" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -438,7 +438,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,28 +446,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -476,14 +476,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -658,953 +658,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D89"/>
+  <dimension ref="B2:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="12"/>
       <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3716.1419999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3998.7649999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
-        <v>3998.7649999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="15">
+      <c r="D9" s="4">
+        <v>4118.4610000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>4118.4610000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="D10" s="7">
+        <v>3717.317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
-        <v>3717.317</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
+      <c r="D11" s="4">
+        <v>3847.2890000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>3847.2890000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="D12" s="7">
+        <v>3692.0230000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7">
-        <v>3692.0230000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="D13" s="4">
+        <v>3780.97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4">
-        <v>3780.97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="D14" s="7">
+        <v>3488.5149999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
-        <v>3488.5149999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="D15" s="6">
+        <v>3794.94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6">
-        <v>3794.94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="19">
+      <c r="D16" s="8">
+        <v>4258.8149999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
         <v>2023</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8">
-        <v>4258.8149999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
+      <c r="D17" s="4">
+        <v>4104.6229999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4">
-        <v>4104.6229999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="D18" s="7">
+        <v>4037.5250000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7">
-        <v>4037.5250000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
+      <c r="D19" s="4">
+        <v>3827.962</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3827.962</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+      <c r="C20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4306.9740000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
-        <v>4306.9740000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="15">
+      <c r="D21" s="4">
+        <v>4327.7169999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
-        <v>4327.7169999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="D22" s="7">
+        <v>3919.3029999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
-        <v>3919.3029999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
+      <c r="D23" s="4">
+        <v>3922.9349999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
-        <v>3922.9349999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+      <c r="D24" s="7">
+        <v>3994.7049999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7">
-        <v>3994.7049999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+      <c r="D25" s="4">
+        <v>4123.3239999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="4">
-        <v>4123.3239999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+      <c r="D26" s="7">
+        <v>3554.797</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="7">
-        <v>3554.797</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="D27" s="6">
+        <v>3990.0680000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6">
-        <v>3990.0680000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="19">
+      <c r="D28" s="8">
+        <v>4238.7659999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
         <v>2022</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="8">
-        <v>4238.7659999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15">
+      <c r="D29" s="4">
+        <v>4112.6660000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="4">
-        <v>4112.6660000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+      <c r="D30" s="7">
+        <v>4176.6270000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="7">
-        <v>4176.6270000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
+      <c r="D31" s="4">
+        <v>3863.6619999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3863.6619999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4312.6530000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
-        <v>4312.6530000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15">
+      <c r="D33" s="4">
+        <v>4341.2539999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="4">
-        <v>4341.2539999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+      <c r="D34" s="7">
+        <v>3494.9769999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="7">
-        <v>3494.9769999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
+      <c r="D35" s="4">
+        <v>3583.3429999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4">
-        <v>3583.3429999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+      <c r="D36" s="7">
+        <v>4001.893</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="7">
-        <v>4001.893</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15">
+      <c r="D37" s="4">
+        <v>3824.444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="4">
-        <v>3824.444</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
+      <c r="D38" s="7">
+        <v>3004.3879999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="7">
-        <v>3004.3879999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="D39" s="6">
+        <v>3245.8560000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="6">
-        <v>3245.8560000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="19">
+      <c r="D40" s="8">
+        <v>4055.7109999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
         <v>2021</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="8">
-        <v>4055.7109999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15">
+      <c r="D41" s="4">
+        <v>3707.04</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="4">
-        <v>3707.04</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+      <c r="D42" s="7">
+        <v>3506.2440000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="7">
-        <v>3506.2440000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
+      <c r="D43" s="4">
+        <v>2990.578</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2990.578</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+      <c r="C44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3351.9850000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C45" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7">
-        <v>3351.9850000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15">
+      <c r="D45" s="4">
+        <v>3590.8180000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="4">
-        <v>3590.8180000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+      <c r="D46" s="7">
+        <v>3133.0639999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="7">
-        <v>3133.0639999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
+      <c r="D47" s="4">
+        <v>3030.8330000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="4">
-        <v>3030.8330000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+      <c r="D48" s="7">
+        <v>2622.9360000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="7">
-        <v>2622.9360000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
+      <c r="D49" s="4">
+        <v>2351.6320000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="4">
-        <v>2351.6320000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13">
+      <c r="D50" s="7">
+        <v>1613.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="7">
-        <v>1613.7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="18" t="s">
+      <c r="D51" s="6">
+        <v>2073.848</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="6">
-        <v>2073.848</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="19">
+      <c r="D52" s="8">
+        <v>2358.857</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15">
         <v>2020</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C53" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="8">
-        <v>2358.857</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="15">
+      <c r="D53" s="4">
+        <v>2044.8030000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="4">
-        <v>2044.8030000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+      <c r="D54" s="7">
+        <v>1852.559</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C55" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="7">
-        <v>1852.559</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="15">
+      <c r="D55" s="4">
+        <v>1508.057</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1508.057</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+      <c r="C56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1349.5129999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="7">
-        <v>1349.5129999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="15">
+      <c r="D57" s="4">
+        <v>1032.491</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="4">
-        <v>1032.491</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+      <c r="D58" s="7">
+        <v>558.99199999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="7">
-        <v>558.99199999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
+      <c r="D59" s="4">
+        <v>275.97500000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="4">
-        <v>275.97500000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+      <c r="D60" s="7">
+        <v>295.649</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="7">
-        <v>295.649</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
+      <c r="D61" s="4">
+        <v>2667.7860000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="4">
-        <v>2667.7860000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="13">
+      <c r="D62" s="7">
+        <v>3822.44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C63" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="7">
-        <v>3822.44</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="D63" s="6">
+        <v>4210.1459999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="6">
-        <v>4210.1459999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="19">
+      <c r="D64" s="8">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="15">
         <v>2019</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C65" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="8">
-        <v>4502</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="15">
+      <c r="D65" s="4">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="4">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+      <c r="D66" s="7">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="7">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="15">
+      <c r="D67" s="4">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="4">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+      <c r="C68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="7">
-        <v>4432</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15">
+      <c r="D69" s="4">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="4">
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+      <c r="D70" s="7">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="7">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
+      <c r="D71" s="4">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="4">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+      <c r="D72" s="7">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C73" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="7">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
+      <c r="D73" s="4">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C74" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="4">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13">
+      <c r="D74" s="7">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="17">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C75" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="7">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="18" t="s">
+      <c r="D75" s="6">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="6">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
+      <c r="D76" s="7">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="16">
         <v>2018</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C77" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="7">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="16">
+      <c r="D77" s="4">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="4">
-        <v>4085</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
+      <c r="D78" s="7">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C79" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="7">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="16">
+      <c r="D79" s="4">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
+      <c r="C80" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C81" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="7">
-        <v>4226</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="16">
+      <c r="D81" s="4">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C82" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="4">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
+      <c r="D82" s="7">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C83" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="7">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="16">
+      <c r="D83" s="4">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="4">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
+      <c r="D84" s="7">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C85" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="7">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="16">
+      <c r="D85" s="4">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="4">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="14">
+      <c r="D86" s="7">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="7">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="4">
+      <c r="D87" s="4">
         <v>3830</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="3"/>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755B9496-C75E-4FFD-A12B-DEA831F5B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEBC7F-BEF0-46C5-9D88-53A003DECC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -114,19 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -140,11 +127,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -259,27 +261,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,39 +287,43 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -334,16 +337,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -369,6 +396,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -380,9 +420,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -417,11 +458,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D87" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D88" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -658,967 +698,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D90"/>
+  <dimension ref="B2:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3708.0059999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="9">
         <v>2023</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="9">
         <v>2022</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D34" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="9">
         <v>2021</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D48" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D50" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="9">
         <v>2020</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D56" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C58" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D58" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D60" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="15">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D62" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="13">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="15">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9">
         <v>2019</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="15">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D68" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="15">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D70" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="15">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D72" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="15">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D74" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="17">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="16">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D78" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="14">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D79" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="16">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D80" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D81" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="16">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D82" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="14">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="16">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D84" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="14">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="16">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D86" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="16">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D88" s="11">
         <v>3830</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3"/>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D91" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEBC7F-BEF0-46C5-9D88-53A003DECC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1E722-61F4-4D50-BA28-23224A81B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D88" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D89" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -698,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D91"/>
+  <dimension ref="B2:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,930 +744,941 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3901.7510000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="12">
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2022</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="9">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2021</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="9">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="12">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2020</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="9">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="12">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="9">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="12">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D91" s="21"/>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D92" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1E722-61F4-4D50-BA28-23224A81B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88312C4C-8F3E-4E1A-8F76-03D3DBB23090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,12 +258,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -318,6 +342,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -458,8 +489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D89" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D90" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -698,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D92"/>
+  <dimension ref="B2:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,941 +775,952 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="22">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3715.1080000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D19" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D31" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D43" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D55" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D67" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C78" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D78" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D92" s="21"/>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D93" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88312C4C-8F3E-4E1A-8F76-03D3DBB23090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80903564-0292-46B1-8858-82E695A36876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,36 +258,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -342,13 +318,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -489,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D90" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D91" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -729,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D93"/>
+  <dimension ref="B2:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
@@ -744,26 +713,26 @@
     <col min="5" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -774,953 +743,964 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="22">
+    <row r="6" spans="2:4">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3247.3229999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="17">
         <v>3715.1080000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:4">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:4">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:4">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:4">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:4">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:4">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:4">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:4">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:4">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:4">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:4">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:4">
+      <c r="B19" s="15">
         <v>2024</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="18">
+    <row r="20" spans="2:4" hidden="1">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:4" hidden="1">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:4" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:4" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:4" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:4" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:4" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:4" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:4" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:4" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:4" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:4" hidden="1">
+      <c r="B31" s="15">
         <v>2023</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="18">
+    <row r="32" spans="2:4" hidden="1">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D32" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:4" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:4" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:4" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:4" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:4" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:4" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:4" hidden="1">
+      <c r="B43" s="15">
         <v>2022</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="18">
+    <row r="44" spans="2:4" hidden="1">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D44" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:4" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+    <row r="50" spans="2:4" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:4" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:4" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:4" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:4" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:4" hidden="1">
+      <c r="B55" s="15">
         <v>2021</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="18">
+    <row r="56" spans="2:4" hidden="1">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:4" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+    <row r="62" spans="2:4" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:4" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:4" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:4" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:4" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:4" hidden="1">
+      <c r="B67" s="15">
         <v>2020</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="18">
+    <row r="68" spans="2:4" hidden="1">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D68" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:4" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+    <row r="74" spans="2:4" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:4" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:4" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:4" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:4" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:4" hidden="1">
+      <c r="B79" s="15">
         <v>2019</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:4" hidden="1">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:4" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:4" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:4" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:4" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:4" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:4" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+    <row r="90" spans="2:4" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="10">
+    <row r="91" spans="2:4" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>3830</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:4">
+      <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D93" s="21"/>
+    <row r="94" spans="2:4">
+      <c r="D94" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80903564-0292-46B1-8858-82E695A36876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2D53A-83E8-4D90-877A-24A6860387FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D91" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -698,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D94"/>
+  <dimension ref="B2:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,963 +744,974 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3701.6709999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>3247.3229999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="15">
+    <row r="8" spans="2:4">
+      <c r="B8" s="15">
         <v>2025</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D8" s="17">
         <v>3715.1080000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="12">
+    <row r="9" spans="2:4">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="9">
+    <row r="10" spans="2:4">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="12">
+    <row r="11" spans="2:4">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="9">
+    <row r="12" spans="2:4">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="12">
+    <row r="13" spans="2:4">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="9">
+    <row r="14" spans="2:4">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="12">
+    <row r="15" spans="2:4">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="9">
+    <row r="16" spans="2:4">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="12">
+    <row r="17" spans="2:4">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="9">
+    <row r="18" spans="2:4">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="12">
+    <row r="19" spans="2:4">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="15">
+    <row r="20" spans="2:4">
+      <c r="B20" s="15">
         <v>2024</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D20" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1">
-      <c r="B20" s="18">
+    <row r="21" spans="2:4" hidden="1">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1">
-      <c r="B21" s="9">
+    <row r="22" spans="2:4" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1">
-      <c r="B22" s="12">
+    <row r="23" spans="2:4" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:4" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1">
-      <c r="B24" s="12">
+    <row r="25" spans="2:4" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:4" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:4" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:4" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:4" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:4" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:4" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:4" hidden="1">
+      <c r="B32" s="15">
         <v>2023</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:4" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:4" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:4" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:4" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:4" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:4" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:4" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:4" hidden="1">
+      <c r="B44" s="15">
         <v>2022</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:4" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:4" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:4" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:4" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:4" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:4" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:4" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:4" hidden="1">
+      <c r="B56" s="15">
         <v>2021</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:4" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:4" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:4" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:4" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:4" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:4" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:4" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:4" hidden="1">
+      <c r="B68" s="15">
         <v>2020</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D68" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:4" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:4" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:4" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:4" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:4" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:4" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:4" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1">
-      <c r="B79" s="15">
+    <row r="80" spans="2:4" hidden="1">
+      <c r="B80" s="15">
         <v>2019</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D80" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:4" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:4" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:4" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:4" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:4" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:4" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:4" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:4" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:4" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
-      <c r="D94" s="21"/>
+    <row r="95" spans="2:4">
+      <c r="D95" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2D53A-83E8-4D90-877A-24A6860387FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2174B4-8096-4760-983A-ADC82A540A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D93" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -698,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D95"/>
+  <dimension ref="B2:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,974 +744,985 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3682.6819999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>3701.6709999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="12">
+    <row r="8" spans="2:4">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>3247.3229999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="15">
+    <row r="9" spans="2:4">
+      <c r="B9" s="15">
         <v>2025</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>3715.1080000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="12">
+    <row r="10" spans="2:4">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="9">
+    <row r="11" spans="2:4">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="12">
+    <row r="12" spans="2:4">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="9">
+    <row r="13" spans="2:4">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="12">
+    <row r="14" spans="2:4">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="9">
+    <row r="15" spans="2:4">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="12">
+    <row r="16" spans="2:4">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="9">
+    <row r="17" spans="2:4">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="12">
+    <row r="18" spans="2:4">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="9">
+    <row r="19" spans="2:4">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="12">
+    <row r="20" spans="2:4">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="15">
+    <row r="21" spans="2:4">
+      <c r="B21" s="15">
         <v>2024</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1">
-      <c r="B21" s="18">
+    <row r="22" spans="2:4" hidden="1">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="20">
         <v>4258.8149999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:4" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1">
-      <c r="B23" s="12">
+    <row r="24" spans="2:4" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:4" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:4" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:4" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:4" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:4" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:4" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:4" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:4" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="15">
         <v>2023</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1">
-      <c r="B33" s="18">
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D34" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:4" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:4" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:4" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:4" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:4" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:4" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:4" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:4" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="15">
         <v>2022</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1">
-      <c r="B45" s="18">
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D46" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:4" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:4" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:4" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:4" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:4" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:4" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:4" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:4" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="15">
         <v>2021</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1">
-      <c r="B57" s="18">
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:4" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:4" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:4" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:4" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:4" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:4" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:4" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:4" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="15">
         <v>2020</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1">
-      <c r="B69" s="18">
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D70" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:4" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:4" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:4" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:4" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:4" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:4" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:4" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:4" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="15">
         <v>2019</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="13">
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:4" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:4" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:4" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:4" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:4" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:4" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:4" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:4" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:4" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:4" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
-      <c r="D95" s="21"/>
+    <row r="96" spans="2:4">
+      <c r="D96" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2174B4-8096-4760-983A-ADC82A540A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEBF815-BC11-450D-A79C-26BD9C900F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -458,11 +458,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D93" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D95" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -698,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D96"/>
+  <dimension ref="B2:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -748,10 +749,10 @@
         <v>2025</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14">
-        <v>3682.6819999999998</v>
+        <v>3610.7049999999999</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -759,10 +760,10 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11">
-        <v>3701.6709999999998</v>
+        <v>3689.6390000000001</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -770,43 +771,43 @@
         <v>2025</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="14">
-        <v>3247.3229999999999</v>
+        <v>3682.6819999999998</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17">
-        <v>3715.1080000000002</v>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3701.6709999999998</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14">
-        <v>3901.7510000000002</v>
+        <v>3247.3229999999999</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3708.0059999999999</v>
+      <c r="B11" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3715.1080000000002</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -814,10 +815,10 @@
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="14">
-        <v>3716.1419999999998</v>
+        <v>3901.7510000000002</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -825,10 +826,10 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11">
-        <v>3595.306</v>
+        <v>3708.0059999999999</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -836,10 +837,10 @@
         <v>2024</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D14" s="14">
-        <v>3998.7649999999999</v>
+        <v>3716.1419999999998</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -847,10 +848,10 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11">
-        <v>4118.4610000000002</v>
+        <v>3595.306</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -858,10 +859,10 @@
         <v>2024</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="14">
-        <v>3717.317</v>
+        <v>3998.7649999999999</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -869,10 +870,10 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="11">
-        <v>3847.2890000000002</v>
+        <v>4118.4610000000002</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -880,10 +881,10 @@
         <v>2024</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="14">
-        <v>3692.0230000000001</v>
+        <v>3717.317</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -891,10 +892,10 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="11">
-        <v>3780.97</v>
+        <v>3847.2890000000002</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -902,54 +903,54 @@
         <v>2024</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3692.0230000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3780.97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D22" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="15">
+    <row r="23" spans="2:4">
+      <c r="B23" s="15">
         <v>2024</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D23" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1">
-      <c r="B22" s="18">
+    <row r="24" spans="2:4" hidden="1">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="20">
-        <v>4258.8149999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" hidden="1">
-      <c r="B23" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11">
-        <v>4104.6229999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" hidden="1">
-      <c r="B24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="14">
-        <v>4037.5250000000001</v>
+      <c r="D24" s="20">
+        <v>4253.0770000000002</v>
       </c>
     </row>
     <row r="25" spans="2:4" hidden="1">
@@ -957,10 +958,10 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="11">
-        <v>3827.962</v>
+        <v>4104.6229999999996</v>
       </c>
     </row>
     <row r="26" spans="2:4" hidden="1">
@@ -968,10 +969,10 @@
         <v>2023</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D26" s="14">
-        <v>4306.9740000000002</v>
+        <v>4037.5250000000001</v>
       </c>
     </row>
     <row r="27" spans="2:4" hidden="1">
@@ -979,10 +980,10 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11">
-        <v>4327.7169999999996</v>
+        <v>3827.962</v>
       </c>
     </row>
     <row r="28" spans="2:4" hidden="1">
@@ -990,10 +991,10 @@
         <v>2023</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14">
-        <v>3919.3029999999999</v>
+        <v>4306.9740000000002</v>
       </c>
     </row>
     <row r="29" spans="2:4" hidden="1">
@@ -1001,10 +1002,10 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="11">
-        <v>3922.9349999999999</v>
+        <v>4327.7169999999996</v>
       </c>
     </row>
     <row r="30" spans="2:4" hidden="1">
@@ -1012,10 +1013,10 @@
         <v>2023</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="14">
-        <v>3994.7049999999999</v>
+        <v>3919.3029999999999</v>
       </c>
     </row>
     <row r="31" spans="2:4" hidden="1">
@@ -1023,10 +1024,10 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="11">
-        <v>4123.3239999999996</v>
+        <v>3922.9349999999999</v>
       </c>
     </row>
     <row r="32" spans="2:4" hidden="1">
@@ -1034,54 +1035,54 @@
         <v>2023</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="14">
+        <v>3994.7049999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="11">
+        <v>4123.3239999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D34" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1">
-      <c r="B33" s="15">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="15">
         <v>2023</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D35" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1">
-      <c r="B34" s="18">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D36" s="20">
         <v>4238.7659999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" hidden="1">
-      <c r="B35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="11">
-        <v>4112.6660000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" hidden="1">
-      <c r="B36" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="14">
-        <v>4176.6270000000004</v>
       </c>
     </row>
     <row r="37" spans="2:4" hidden="1">
@@ -1089,10 +1090,10 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="11">
-        <v>3863.6619999999998</v>
+        <v>4112.6660000000002</v>
       </c>
     </row>
     <row r="38" spans="2:4" hidden="1">
@@ -1100,10 +1101,10 @@
         <v>2022</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D38" s="14">
-        <v>4312.6530000000002</v>
+        <v>4176.6270000000004</v>
       </c>
     </row>
     <row r="39" spans="2:4" hidden="1">
@@ -1111,10 +1112,10 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D39" s="11">
-        <v>4341.2539999999999</v>
+        <v>3863.6619999999998</v>
       </c>
     </row>
     <row r="40" spans="2:4" hidden="1">
@@ -1122,10 +1123,10 @@
         <v>2022</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" s="14">
-        <v>3494.9769999999999</v>
+        <v>4312.6530000000002</v>
       </c>
     </row>
     <row r="41" spans="2:4" hidden="1">
@@ -1133,10 +1134,10 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="11">
-        <v>3583.3429999999998</v>
+        <v>4341.2539999999999</v>
       </c>
     </row>
     <row r="42" spans="2:4" hidden="1">
@@ -1144,10 +1145,10 @@
         <v>2022</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" s="14">
-        <v>4001.893</v>
+        <v>3494.9769999999999</v>
       </c>
     </row>
     <row r="43" spans="2:4" hidden="1">
@@ -1155,10 +1156,10 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="11">
-        <v>3824.444</v>
+        <v>3583.3429999999998</v>
       </c>
     </row>
     <row r="44" spans="2:4" hidden="1">
@@ -1166,54 +1167,54 @@
         <v>2022</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="14">
+        <v>4001.893</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11">
+        <v>3824.444</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D46" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1">
-      <c r="B45" s="15">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="15">
         <v>2022</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D47" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1">
-      <c r="B46" s="18">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D48" s="20">
         <v>4055.7109999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" hidden="1">
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="11">
-        <v>3707.04</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" hidden="1">
-      <c r="B48" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="14">
-        <v>3506.2440000000001</v>
       </c>
     </row>
     <row r="49" spans="2:4" hidden="1">
@@ -1221,10 +1222,10 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="11">
-        <v>2990.578</v>
+        <v>3707.04</v>
       </c>
     </row>
     <row r="50" spans="2:4" hidden="1">
@@ -1232,10 +1233,10 @@
         <v>2021</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D50" s="14">
-        <v>3351.9850000000001</v>
+        <v>3506.2440000000001</v>
       </c>
     </row>
     <row r="51" spans="2:4" hidden="1">
@@ -1243,10 +1244,10 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D51" s="11">
-        <v>3590.8180000000002</v>
+        <v>2990.578</v>
       </c>
     </row>
     <row r="52" spans="2:4" hidden="1">
@@ -1254,10 +1255,10 @@
         <v>2021</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" s="14">
-        <v>3133.0639999999999</v>
+        <v>3351.9850000000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" hidden="1">
@@ -1265,10 +1266,10 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" s="11">
-        <v>3030.8330000000001</v>
+        <v>3590.8180000000002</v>
       </c>
     </row>
     <row r="54" spans="2:4" hidden="1">
@@ -1276,10 +1277,10 @@
         <v>2021</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54" s="14">
-        <v>2622.9360000000001</v>
+        <v>3133.0639999999999</v>
       </c>
     </row>
     <row r="55" spans="2:4" hidden="1">
@@ -1287,10 +1288,10 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="11">
-        <v>2351.6320000000001</v>
+        <v>3030.8330000000001</v>
       </c>
     </row>
     <row r="56" spans="2:4" hidden="1">
@@ -1298,54 +1299,54 @@
         <v>2021</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2622.9360000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="11">
+        <v>2351.6320000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D58" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1">
-      <c r="B57" s="15">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="15">
         <v>2021</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D59" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1">
-      <c r="B58" s="18">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D60" s="20">
         <v>2358.857</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" hidden="1">
-      <c r="B59" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="11">
-        <v>2044.8030000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" hidden="1">
-      <c r="B60" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1852.559</v>
       </c>
     </row>
     <row r="61" spans="2:4" hidden="1">
@@ -1353,10 +1354,10 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="11">
-        <v>1508.057</v>
+        <v>2044.8030000000001</v>
       </c>
     </row>
     <row r="62" spans="2:4" hidden="1">
@@ -1364,10 +1365,10 @@
         <v>2020</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D62" s="14">
-        <v>1349.5129999999999</v>
+        <v>1852.559</v>
       </c>
     </row>
     <row r="63" spans="2:4" hidden="1">
@@ -1375,10 +1376,10 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D63" s="11">
-        <v>1032.491</v>
+        <v>1508.057</v>
       </c>
     </row>
     <row r="64" spans="2:4" hidden="1">
@@ -1386,10 +1387,10 @@
         <v>2020</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D64" s="14">
-        <v>558.99199999999996</v>
+        <v>1349.5129999999999</v>
       </c>
     </row>
     <row r="65" spans="2:4" hidden="1">
@@ -1397,10 +1398,10 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65" s="11">
-        <v>275.97500000000002</v>
+        <v>1032.491</v>
       </c>
     </row>
     <row r="66" spans="2:4" hidden="1">
@@ -1408,10 +1409,10 @@
         <v>2020</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66" s="14">
-        <v>295.649</v>
+        <v>558.99199999999996</v>
       </c>
     </row>
     <row r="67" spans="2:4" hidden="1">
@@ -1419,10 +1420,10 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="11">
-        <v>2667.7860000000001</v>
+        <v>275.97500000000002</v>
       </c>
     </row>
     <row r="68" spans="2:4" hidden="1">
@@ -1430,54 +1431,54 @@
         <v>2020</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="14">
+        <v>295.649</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="11">
+        <v>2667.7860000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D70" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1">
-      <c r="B69" s="15">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="15">
         <v>2020</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D71" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1">
-      <c r="B70" s="18">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D72" s="20">
         <v>4502</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" hidden="1">
-      <c r="B71" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="11">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="14">
-        <v>4249</v>
       </c>
     </row>
     <row r="73" spans="2:4" hidden="1">
@@ -1485,10 +1486,10 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" s="11">
-        <v>3914</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="74" spans="2:4" hidden="1">
@@ -1496,10 +1497,10 @@
         <v>2019</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D74" s="14">
-        <v>4432</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="75" spans="2:4" hidden="1">
@@ -1507,10 +1508,10 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D75" s="11">
-        <v>4629</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="76" spans="2:4" hidden="1">
@@ -1518,10 +1519,10 @@
         <v>2019</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76" s="14">
-        <v>4261</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="77" spans="2:4" hidden="1">
@@ -1529,10 +1530,10 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77" s="11">
-        <v>4347</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="78" spans="2:4" hidden="1">
@@ -1540,10 +1541,10 @@
         <v>2019</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D78" s="14">
-        <v>4127</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="79" spans="2:4" hidden="1">
@@ -1551,10 +1552,10 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" s="11">
-        <v>4123</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="80" spans="2:4" hidden="1">
@@ -1562,43 +1563,43 @@
         <v>2019</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="14">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="11">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D82" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="15">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="15">
         <v>2019</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D83" s="17">
         <v>3954</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" hidden="1">
-      <c r="B82" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="14">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" hidden="1">
-      <c r="B83" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="11">
-        <v>4085</v>
       </c>
     </row>
     <row r="84" spans="2:4" hidden="1">
@@ -1606,10 +1607,10 @@
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" s="14">
-        <v>4060</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="85" spans="2:4" hidden="1">
@@ -1617,10 +1618,10 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" s="11">
-        <v>3754</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="86" spans="2:4" hidden="1">
@@ -1628,10 +1629,10 @@
         <v>2018</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D86" s="14">
-        <v>4226</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="87" spans="2:4" hidden="1">
@@ -1639,10 +1640,10 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D87" s="11">
-        <v>4449</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="88" spans="2:4" hidden="1">
@@ -1650,10 +1651,10 @@
         <v>2018</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" s="14">
-        <v>3918</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="89" spans="2:4" hidden="1">
@@ -1661,10 +1662,10 @@
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D89" s="11">
-        <v>3962</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="90" spans="2:4" hidden="1">
@@ -1672,10 +1673,10 @@
         <v>2018</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D90" s="14">
-        <v>3880</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="91" spans="2:4" hidden="1">
@@ -1683,10 +1684,10 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" s="11">
-        <v>3917</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="92" spans="2:4" hidden="1">
@@ -1694,10 +1695,10 @@
         <v>2018</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D92" s="14">
-        <v>3362</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="93" spans="2:4" hidden="1">
@@ -1705,24 +1706,46 @@
         <v>2018</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="11">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" hidden="1">
+      <c r="B94" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="14">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" hidden="1">
+      <c r="B95" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D95" s="11">
         <v>3830</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="3" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="3" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
-      <c r="D96" s="21"/>
+    <row r="98" spans="2:4">
+      <c r="D98" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEBF815-BC11-450D-A79C-26BD9C900F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5681E-074E-48B1-BA70-8E46769DF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_34" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D95" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -699,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D98"/>
+  <dimension ref="B2:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -745,1007 +745,1018 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4019.65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>3610.7049999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="9">
+    <row r="8" spans="2:4">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>3689.6390000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="12">
+    <row r="9" spans="2:4">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>3682.6819999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="9">
+    <row r="10" spans="2:4">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>3701.6709999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="12">
+    <row r="11" spans="2:4">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>3247.3229999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="15">
+    <row r="12" spans="2:4">
+      <c r="B12" s="15">
         <v>2025</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D12" s="17">
         <v>3715.1080000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="12">
+    <row r="13" spans="2:4">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="9">
+    <row r="14" spans="2:4">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="12">
+    <row r="15" spans="2:4">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="9">
+    <row r="16" spans="2:4">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="12">
+    <row r="17" spans="2:4">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="9">
+    <row r="18" spans="2:4">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="12">
+    <row r="19" spans="2:4">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="9">
+    <row r="20" spans="2:4">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="12">
+    <row r="21" spans="2:4">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="9">
+    <row r="22" spans="2:4">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="12">
+    <row r="23" spans="2:4">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="15">
+    <row r="24" spans="2:4">
+      <c r="B24" s="15">
         <v>2024</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1">
-      <c r="B24" s="18">
+    <row r="25" spans="2:4" hidden="1">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <v>4253.0770000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:4" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:4" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:4" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:4" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:4" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:4" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:4" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1">
-      <c r="B35" s="15">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="15">
         <v>2023</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D36" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:4" hidden="1">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:4" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:4" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:4" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:4" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:4" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:4" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:4" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1">
-      <c r="B47" s="15">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="15">
         <v>2022</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:4" hidden="1">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:4" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:4" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:4" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:4" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:4" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:4" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:4" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1">
-      <c r="B59" s="15">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="15">
         <v>2021</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:4" hidden="1">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:4" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:4" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:4" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:4" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:4" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:4" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:4" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1">
-      <c r="B71" s="15">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="15">
         <v>2020</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D72" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:4" hidden="1">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:4" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:4" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:4" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:4" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:4" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:4" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:4" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:4" hidden="1">
+      <c r="B84" s="15">
         <v>2019</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D84" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:4" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:4" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:4" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:4" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:4" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:4" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:4" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:4" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:4" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1">
-      <c r="B93" s="10">
+    <row r="94" spans="2:4" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1">
-      <c r="B94" s="13">
+    <row r="95" spans="2:4" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D95" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="95" spans="2:4" hidden="1">
-      <c r="B95" s="10">
+    <row r="96" spans="2:4" hidden="1">
+      <c r="B96" s="10">
         <v>2018</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
-      <c r="D98" s="21"/>
+    <row r="99" spans="2:4">
+      <c r="D99" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_AICM.xlsx
+++ b/Pasajeros_AICM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5681E-074E-48B1-BA70-8E46769DF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4505E-615F-49EB-92F4-E9F0D1BB5023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Fuente:  AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="B5:D96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:D97" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B5:D97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -699,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:D99"/>
+  <dimension ref="B2:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -745,1018 +745,1029 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3936.6019999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>4019.65</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="12">
+    <row r="8" spans="2:4">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>3610.7049999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="9">
+    <row r="9" spans="2:4">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>3689.6390000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="12">
+    <row r="10" spans="2:4">
+      <c r="B10" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <v>3682.6819999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="9">
+    <row r="11" spans="2:4">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>3701.6709999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="12">
+    <row r="12" spans="2:4">
+      <c r="B12" s="12">
         <v>2025</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <v>3247.3229999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="15">
+    <row r="13" spans="2:4">
+      <c r="B13" s="15">
         <v>2025</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>3715.1080000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="12">
+    <row r="14" spans="2:4">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>3901.7510000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="9">
+    <row r="15" spans="2:4">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>3708.0059999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="12">
+    <row r="16" spans="2:4">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>3716.1419999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="9">
+    <row r="17" spans="2:4">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>3595.306</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="12">
+    <row r="18" spans="2:4">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>3998.7649999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="9">
+    <row r="19" spans="2:4">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>4118.4610000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="12">
+    <row r="20" spans="2:4">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>3717.317</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="9">
+    <row r="21" spans="2:4">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>3847.2890000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="12">
+    <row r="22" spans="2:4">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>3692.0230000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="9">
+    <row r="23" spans="2:4">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>3780.97</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="12">
+    <row r="24" spans="2:4">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <v>3488.5149999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="15">
+    <row r="25" spans="2:4">
+      <c r="B25" s="15">
         <v>2024</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="17">
         <v>3794.94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1">
-      <c r="B25" s="18">
+    <row r="26" spans="2:4" hidden="1">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D26" s="20">
         <v>4253.0770000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:4" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>4104.6229999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:4" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>4037.5250000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:4" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>3827.962</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:4" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>4306.9740000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:4" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>4327.7169999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:4" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>3919.3029999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:4" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>3922.9349999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:4" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>3994.7049999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:4" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>4123.3239999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:4" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>3554.797</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1">
-      <c r="B36" s="15">
+    <row r="37" spans="2:4" hidden="1">
+      <c r="B37" s="15">
         <v>2023</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="17">
         <v>3990.0680000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1">
-      <c r="B37" s="18">
+    <row r="38" spans="2:4" hidden="1">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D38" s="20">
         <v>4238.7659999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:4" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>4112.6660000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:4" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>4176.6270000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:4" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>3863.6619999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:4" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>4312.6530000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:4" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>4341.2539999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:4" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>3494.9769999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:4" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>3583.3429999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:4" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>4001.893</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:4" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>3824.444</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:4" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <v>3004.3879999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1">
-      <c r="B48" s="15">
+    <row r="49" spans="2:4" hidden="1">
+      <c r="B49" s="15">
         <v>2022</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>3245.8560000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1">
-      <c r="B49" s="18">
+    <row r="50" spans="2:4" hidden="1">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D50" s="20">
         <v>4055.7109999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:4" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>3707.04</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:4" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>3506.2440000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:4" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>2990.578</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:4" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>3351.9850000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:4" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>3590.8180000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:4" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>3133.0639999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:4" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>3030.8330000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:4" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>2622.9360000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:4" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>2351.6320000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:4" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>1613.7</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1">
-      <c r="B60" s="15">
+    <row r="61" spans="2:4" hidden="1">
+      <c r="B61" s="15">
         <v>2021</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>2073.848</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1">
-      <c r="B61" s="18">
+    <row r="62" spans="2:4" hidden="1">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D62" s="20">
         <v>2358.857</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:4" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>2044.8030000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:4" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>1852.559</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:4" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>1508.057</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:4" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>1349.5129999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:4" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>1032.491</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:4" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>558.99199999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:4" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>275.97500000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:4" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>295.649</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:4" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>2667.7860000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:4" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <v>3822.44</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1">
-      <c r="B72" s="15">
+    <row r="73" spans="2:4" hidden="1">
+      <c r="B73" s="15">
         <v>2020</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="17">
         <v>4210.1459999999997</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1">
-      <c r="B73" s="18">
+    <row r="74" spans="2:4" hidden="1">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D74" s="20">
         <v>4502</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:4" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>4251</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:4" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>4249</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:4" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>3914</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:4" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>4432</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:4" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>4629</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:4" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>4261</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:4" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>4347</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:4" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <v>4127</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:4" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>4123</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:4" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <v>3516</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:4" hidden="1">
+      <c r="B85" s="15">
         <v>2019</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="17">
         <v>3954</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:4" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <v>4255</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:4" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>4085</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:4" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <v>4060</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:4" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>3754</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:4" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <v>4226</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:4" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>4449</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:4" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <v>3918</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:4" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>3962</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1">
-      <c r="B93" s="13">
+    <row r="94" spans="2:4" hidden="1">
+      <c r="B94" s="13">
         <v>2018</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D94" s="14">
         <v>3880</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1">
-      <c r="B94" s="10">
+    <row r="95" spans="2:4" hidden="1">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>3917</v>
       </c>
     </row>
-    <row r="95" spans="2:4" hidden="1">
-      <c r="B95" s="13">
+    <row r="96" spans="2:4" hidden="1">
+      <c r="B96" s="13">
         <v>2018</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D96" s="14">
         <v>3362</v>
       </c>
     </row>
-    <row r="96" spans="2:4" hidden="1">
-      <c r="B96" s="10">
+    <row r="97" spans="2:4" hidden="1">
+      <c r="B97" s="10">
         <v>2018</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D97" s="11">
         <v>3830</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="D99" s="21"/>
+    <row r="100" spans="2:4">
+      <c r="D100" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
